--- a/downloads/2022-capturidroguri.xlsx
+++ b/downloads/2022-capturidroguri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciprian.zetu\Desktop\ANA\dataGOV\2024\SMROD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciprian.zetu\Desktop\ANA\dataGOV\2023\Seturi de date OK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7941B2-9F3F-475A-B325-58E0BE45E04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24D1D46-D7FD-461F-96B4-58008B32AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Heroină</t>
   </si>
@@ -93,6 +93,9 @@
     <t>Barbiturice</t>
   </si>
   <si>
+    <t>Buprenorfină</t>
+  </si>
+  <si>
     <t>Zolpidem</t>
   </si>
   <si>
@@ -117,26 +120,17 @@
     <t>Nr. Capturi</t>
   </si>
   <si>
+    <t>SITUAŢIA CONFISCĂRILOR DE DROGURI REALIZATE ÎN ROMÂNIA, 
+ÎN PERIOADA IANUARIE - DECEMBRIE 2021</t>
+  </si>
+  <si>
+    <t>Cactus/Mescalină</t>
+  </si>
+  <si>
     <t>Amfepramonă</t>
   </si>
   <si>
-    <t>SITUAŢIA CONFISCĂRILOR DE DROGURI REALIZATE ÎN ROMÂNIA, 
-ÎN PERIOADA IANUARIE - DECEMBRIE 2022</t>
-  </si>
-  <si>
-    <t>Opiu</t>
-  </si>
-  <si>
-    <t>Petidină</t>
-  </si>
-  <si>
-    <t>Fentanyl</t>
-  </si>
-  <si>
-    <t>Dihidrocodeina</t>
-  </si>
-  <si>
-    <t>Soluție cu THC</t>
+    <t>Mitraginină</t>
   </si>
 </sst>
 </file>
@@ -207,11 +201,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F36"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,19 +508,19 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -534,15 +528,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>191288.9599999995</v>
+        <v>1437392.0500000024</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <v>373</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -550,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>80117.560000000012</v>
+        <v>874727.27000000025</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
-        <v>646</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -564,17 +556,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>13960.679999999997</v>
+        <v>8374.6800000000039</v>
       </c>
       <c r="C7" s="2">
-        <v>5438</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>200</v>
+        <v>2.6</v>
       </c>
       <c r="F7" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -582,13 +574,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>732.14</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>1383.53</v>
+      </c>
+      <c r="C8" s="2">
+        <v>203</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -596,15 +590,15 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>2372.16</v>
+        <v>2677.2300000000009</v>
       </c>
       <c r="C9" s="2">
-        <v>45355</v>
+        <v>48594</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,33 +606,33 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>3.26</v>
+        <v>15.34</v>
       </c>
       <c r="C10" s="2">
-        <v>1157</v>
+        <v>961</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="F10" s="2">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>0.05</v>
+      </c>
       <c r="C11" s="2">
-        <v>20</v>
+        <v>610</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>505.3</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -646,379 +640,347 @@
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>0.03</v>
+        <v>50.86</v>
       </c>
       <c r="C12" s="2">
-        <v>3941</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>1049</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
-        <v>119365.6</v>
+        <v>3.62</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2">
+        <v>1541</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.7</v>
+      </c>
       <c r="F13" s="2">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>1414</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.9</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="C14" s="2">
+        <v>215</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>2.5500000000000003</v>
-      </c>
-      <c r="C15" s="2">
-        <v>80</v>
-      </c>
+        <v>657.25000000000011</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>752.64</v>
+        <v>861.22</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2">
-        <v>593.73999999999978</v>
+        <v>112.44</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>9</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2">
-        <v>16968.63</v>
+        <v>2.41</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>459</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2">
-        <v>1.46</v>
+        <v>133.56</v>
       </c>
       <c r="C19" s="2">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <v>47.89</v>
+      </c>
+      <c r="C20" s="2">
+        <v>55</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>420</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
-        <v>8142</v>
-      </c>
-      <c r="D21" s="2">
-        <v>267</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <v>410</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>498009.34999999951</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
-        <v>414.42</v>
+        <v>6136.55</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>21</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>14.3</v>
+      </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2">
-        <v>624938.20000000263</v>
+        <v>1905.1899999999996</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>125.5</v>
+      </c>
       <c r="F25" s="2">
-        <v>3889</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2">
-        <v>12587.839999999998</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>3.53</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3940</v>
+      </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>33</v>
+      </c>
       <c r="F26" s="2">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>220.48</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>60045.599999999999</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1650.4899999999993</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
+        <v>147</v>
+      </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>369.92</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="2">
-        <v>13.330000000000007</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2">
-        <v>442062</v>
+        <v>2124</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>86.4</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>16</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2">
-        <v>69</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B32" s="2">
+        <v>48.75</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>4047.86</v>
+      </c>
       <c r="F32" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2">
-        <v>2703</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3586348.1999999997</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2">
-        <v>14</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2">
-        <v>118.9</v>
-      </c>
-      <c r="C34" s="2">
-        <v>30</v>
-      </c>
+        <v>1341889.55</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2">
-        <v>5065</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="2">
-        <v>652576.71999999986</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="2">
-        <v>176928.09</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
